--- a/Group4.xlsx
+++ b/Group4.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Login and registration</t>
   </si>
@@ -88,20 +88,83 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
+    <t xml:space="preserve">As a </t>
+  </si>
+  <si>
+    <t>I want</t>
+  </si>
+  <si>
+    <t>all the pdfs to be stored as subjectwise.</t>
+  </si>
+  <si>
+    <t>So that</t>
+  </si>
+  <si>
+    <t>student of 11th standard</t>
+  </si>
+  <si>
+    <t>User Story1</t>
+  </si>
+  <si>
+    <t>I can study Sequentially or according to my time table.</t>
+  </si>
+  <si>
+    <t>User Story2</t>
+  </si>
+  <si>
+    <t>no other apps should run in the background</t>
+  </si>
+  <si>
+    <t>I can Focus and study without any disturbance</t>
+  </si>
+  <si>
+    <t>User Story3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student </t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Pop-ups/ Adds should be blocked</t>
+  </si>
+  <si>
+    <t>I can use the app and study properly</t>
+  </si>
+  <si>
+    <t>User Story4</t>
+  </si>
+  <si>
+    <t>Progress Tracking</t>
+  </si>
+  <si>
+    <t>I can Track my Preparation Progess</t>
+  </si>
+  <si>
+    <t>2. Timmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Task Completed Perctage </t>
+  </si>
+  <si>
+    <t>1. Remainders That can sync with Calender</t>
+  </si>
+  <si>
+    <t>User Story5</t>
+  </si>
+  <si>
+    <t>Adaptive Test</t>
+  </si>
+  <si>
+    <t>My difficulty level should increase According to my progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +172,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +204,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,14 +271,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,15 +576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="1.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" customWidth="1"/>
+    <col min="14" max="14" width="53.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -436,160 +599,296 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="L9" s="8"/>
+      <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L10" s="8">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L13" s="9">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L14" s="10">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="10">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L16" s="11">
+        <v>4</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="12">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="L19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="12">
+        <v>5</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="L20" t="s">
-        <v>22</v>
+      <c r="L20" s="12">
+        <v>5</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
